--- a/Bank_statement1.xlsx
+++ b/Bank_statement1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Account No</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Deposite</t>
   </si>
   <si>
-    <t>un00boi001</t>
+    <t>UN00BOI003</t>
   </si>
   <si>
     <t>Bank Deposite</t>
@@ -43,7 +43,22 @@
     <t>50000</t>
   </si>
   <si>
-    <t>20000</t>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>34533</t>
+  </si>
+  <si>
+    <t>4574</t>
+  </si>
+  <si>
+    <t>4567</t>
+  </si>
+  <si>
+    <t>3454</t>
+  </si>
+  <si>
+    <t>23453</t>
   </si>
 </sst>
 </file>
@@ -375,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,7 +418,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>45473</v>
+        <v>45493</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -420,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>45473</v>
+        <v>45493</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -430,6 +445,91 @@
       </c>
       <c r="E3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>45493</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>45493</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>45493</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>45493</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>45493</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
